--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$46</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="378">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Conditions used for medical history, initial impression, ICD-10 nature/external cause, and final diagnosis entries.</t>
+    <t>Condition resource for Road Safety IG.  Designed following the TW Core philosophy: a single, flexible Condition profile that supports multiple coding systems (ICD, SNOMED), textual entries, and use-case specific semantics (initial impression, final diagnosis, medical history) via code.coding slicing and category usage. Not a copy of TW Core — adapted to Road Safety needs.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -701,6 +701,124 @@
     <t>246090004</t>
   </si>
   <si>
+    <t>Condition.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Condition.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Condition.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:icd10Nature</t>
+  </si>
+  <si>
+    <t>icd10Nature</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:icd10ExternalCause</t>
+  </si>
+  <si>
+    <t>icd10ExternalCause</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:sct</t>
+  </si>
+  <si>
+    <t>sct</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:otherLocal</t>
+  </si>
+  <si>
+    <t>otherLocal</t>
+  </si>
+  <si>
+    <t>Condition.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Condition.bodySite</t>
   </si>
   <si>
@@ -920,29 +1038,7 @@
     <t>Condition.stage.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Condition.stage.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Condition.stage.modifierExtension</t>
@@ -1434,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP38"/>
+  <dimension ref="A1:AP46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1443,9 +1539,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.66015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.5859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1471,7 +1567,7 @@
     <col min="26" max="26" width="48.00390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3054,7 +3150,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>183</v>
       </c>
@@ -3070,10 +3166,10 @@
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>80</v>
@@ -3174,7 +3270,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>193</v>
       </c>
@@ -3193,7 +3289,7 @@
         <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>80</v>
@@ -3307,7 +3403,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>92</v>
@@ -3430,7 +3526,7 @@
         <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -3439,20 +3535,18 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N17" t="s" s="2">
         <v>220</v>
       </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3477,103 +3571,103 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP17" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AM17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="B18" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3609,46 +3703,46 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>80</v>
@@ -3656,10 +3750,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3670,7 +3764,7 @@
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -3682,18 +3776,20 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
@@ -3729,16 +3825,14 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>236</v>
@@ -3747,7 +3841,7 @@
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
@@ -3756,19 +3850,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>80</v>
@@ -3776,12 +3870,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>80</v>
       </c>
@@ -3790,7 +3886,7 @@
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -3802,18 +3898,20 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -3861,13 +3959,13 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -3876,19 +3974,19 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>80</v>
@@ -3896,12 +3994,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
@@ -3910,7 +4010,7 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -3919,21 +4019,23 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -3981,16 +4083,16 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>104</v>
@@ -4002,13 +4104,13 @@
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
@@ -4016,12 +4118,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4042,16 +4146,20 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4099,13 +4207,13 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -4120,13 +4228,13 @@
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -4134,12 +4242,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4148,7 +4258,7 @@
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4160,16 +4270,20 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4217,13 +4331,13 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
@@ -4238,24 +4352,24 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4269,7 +4383,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>80</v>
@@ -4278,16 +4392,20 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4335,7 +4453,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4356,24 +4474,24 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4387,24 +4505,26 @@
         <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>281</v>
+        <v>159</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4429,13 +4549,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4453,7 +4573,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4465,65 +4585,67 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>284</v>
+        <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4571,10 +4693,10 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>92</v>
@@ -4583,65 +4705,65 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>141</v>
+        <v>278</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4691,34 +4813,34 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>80</v>
@@ -4726,46 +4848,44 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>138</v>
+        <v>284</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4813,34 +4933,34 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>80</v>
@@ -4848,10 +4968,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4874,15 +4994,17 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>159</v>
+        <v>284</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -4907,13 +5029,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -4931,7 +5053,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -4940,7 +5062,7 @@
         <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>104</v>
@@ -4949,16 +5071,16 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>214</v>
+        <v>297</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
@@ -4966,10 +5088,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4980,7 +5102,7 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -4989,16 +5111,16 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5049,16 +5171,16 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>104</v>
@@ -5070,13 +5192,13 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
@@ -5084,10 +5206,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5107,16 +5229,16 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5143,13 +5265,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5167,7 +5289,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5191,10 +5313,10 @@
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5202,10 +5324,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5216,7 +5338,7 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5225,20 +5347,18 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5287,19 +5407,19 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>322</v>
+        <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5308,13 +5428,13 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>80</v>
@@ -5322,10 +5442,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5336,7 +5456,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5348,13 +5468,13 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5405,19 +5525,19 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5429,7 +5549,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5440,21 +5560,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5466,17 +5586,15 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5525,19 +5643,19 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5549,7 +5667,7 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -5560,14 +5678,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>296</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5580,26 +5698,24 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O35" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5647,7 +5763,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -5671,7 +5787,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -5682,14 +5798,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5702,13 +5818,13 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>328</v>
@@ -5716,8 +5832,12 @@
       <c r="M36" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5741,31 +5861,31 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -5774,25 +5894,25 @@
         <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>334</v>
+        <v>135</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
@@ -5800,10 +5920,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5814,7 +5934,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -5823,16 +5943,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>337</v>
+        <v>159</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5859,13 +5979,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -5883,16 +6003,16 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI37" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -5901,16 +6021,16 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>311</v>
+        <v>214</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -5918,10 +6038,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5944,13 +6064,13 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6001,7 +6121,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6010,32 +6130,984 @@
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AO38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP38" t="s" s="2">
+      <c r="Z39" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP39" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP40" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP41" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP42" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP43" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AP44" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AP45" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP38">
+  <autoFilter ref="A1:AP46">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6045,7 +7117,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI37">
+  <conditionalFormatting sqref="A2:AI45">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Condition resource for Road Safety IG.  Designed following the TW Core philosophy: a single, flexible Condition profile that supports multiple coding systems (ICD, SNOMED), textual entries, and use-case specific semantics (initial impression, final diagnosis, medical history) via code.coding slicing and category usage. Not a copy of TW Core — adapted to Road Safety needs.</t>
+    <t>Condition resource for Road Safety IG.  a single, flexible Condition profile that supports multiple coding systems (ICD, SNOMED), textual entries, and use-case specific semantics (initial impression, final diagnosis, medical history) via code.coding slicing and category usage.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Condition resource for Road Safety IG.  a single, flexible Condition profile that supports multiple coding systems (ICD, SNOMED), textual entries, and use-case specific semantics (initial impression, final diagnosis, medical history) via code.coding slicing and category usage.</t>
+    <t>Condition resource for Road Safety IG that supports multiple coding systems, textual entries and use-case specific semantics (initial impression, final diagnosis, medical history) via code.coding slicing and category usage.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -656,7 +656,7 @@
 </t>
   </si>
   <si>
-    <t>Identification of the condition, problem or diagnosis</t>
+    <t>Condition / diagnosis code</t>
   </si>
   <si>
     <t>Identification of the condition, problem or diagnosis.</t>
@@ -758,7 +758,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Condition</t>
+    <t>RS Condition</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Condition resource for Road Safety IG that supports multiple coding systems, textual entries and use-case specific semantics (initial impression, final diagnosis, medical history) via code.coding slicing and category usage.</t>
+    <t>Condition resource for RS IG that supports multiple coding systems, textual entries and use-case specific semantics (initial impression, final diagnosis, medical history) via code.coding slicing and category usage.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-condition.xlsx
+++ b/StructureDefinition-rs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
